--- a/biology/Zoologie/Acanthoderes/Acanthoderes.xlsx
+++ b/biology/Zoologie/Acanthoderes/Acanthoderes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthoderes est un genre d'Insectes coléoptères de la famille des Cerambycidae, de la sous-famille des Lamiinae et de la tribu des Acanthoderini.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste de sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 mars 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 mars 2022) :
 Sous-genre Acanthoderes Audinet-Serville, 1835
 Acanthoderes albifrons Chemsak &amp; Hovore, 2002
 Acanthoderes aliciae Chemsak &amp; Hovore, 2002
@@ -545,7 +559,7 @@
 Sous-genre Pardalisia Casey, 1913
 Acanthoderes amplifrons Chemsak &amp; Hovore, 2002
 Acanthoderes funeraria Bates, 1861
-Selon Catalogue of Life                                   (19 mars 2022)[2] :
+Selon Catalogue of Life                                   (19 mars 2022) :
 Sous-genre Pardalisia
 Acanthoderes (Pardalisia) amplifrons Chemsak &amp; Hovore, 2002
 Acanthoderes (Pardalisia) funeraria Bates, 1861
@@ -582,10 +596,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Acanthoderes Audinet-Serville, 1835[3].
-Acanthoderes a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Acanthoderes Audinet-Serville, 1835.
+Acanthoderes a pour synonymes :
 Acanthodera Agassiz, 1846
 Acanthoderus lepidus Heer, 1864
 Acanthoderus sepultus Heer, 1864
